--- a/data/eda_df.xlsx
+++ b/data/eda_df.xlsx
@@ -517,11 +517,11 @@
         <v>73.26992750167847</v>
       </c>
       <c r="G2" t="n">
-        <v>2.105</v>
+        <v>0.5043964845276997</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -561,11 +561,11 @@
         <v>64.03681039810181</v>
       </c>
       <c r="G3" t="n">
-        <v>2.213</v>
+        <v>0.5907064345708697</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -605,11 +605,11 @@
         <v>67.0968770980835</v>
       </c>
       <c r="G4" t="n">
-        <v>2.11</v>
+        <v>0.5200253910687755</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -649,7 +649,7 @@
         <v>81.50438070297241</v>
       </c>
       <c r="G5" t="n">
-        <v>2.066</v>
+        <v>0.4541300988607906</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>64.37836885452271</v>
       </c>
       <c r="G6" t="n">
-        <v>2.276</v>
+        <v>0.6875396689422701</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -737,11 +737,11 @@
         <v>75.02506375312805</v>
       </c>
       <c r="G7" t="n">
-        <v>2.166</v>
+        <v>0.5328531926594485</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -781,7 +781,7 @@
         <v>81.11498951911926</v>
       </c>
       <c r="G8" t="n">
-        <v>2.327</v>
+        <v>0.826514938610609</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>69.10209059715271</v>
       </c>
       <c r="G9" t="n">
-        <v>2.252</v>
+        <v>0.7160354266147237</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -869,11 +869,11 @@
         <v>65.83297848701477</v>
       </c>
       <c r="G10" t="n">
-        <v>2.162</v>
+        <v>0.5497695169257135</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -913,7 +913,7 @@
         <v>72.34790921211243</v>
       </c>
       <c r="G11" t="n">
-        <v>2.037</v>
+        <v>0.3886788944508374</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         <v>62.21949458122253</v>
       </c>
       <c r="G12" t="n">
-        <v>2.062</v>
+        <v>0.4199250809486476</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>78.22677493095398</v>
       </c>
       <c r="G13" t="n">
-        <v>2.095</v>
+        <v>0.5010137846285174</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>60.89263558387756</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>0.7508441462442499</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
         <v>63.08711767196655</v>
       </c>
       <c r="G15" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>73.43251705169678</v>
       </c>
       <c r="G16" t="n">
-        <v>2.303</v>
+        <v>0.857276897624203</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         <v>77.69182920455933</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1221,11 +1221,11 @@
         <v>79.68518137931824</v>
       </c>
       <c r="G18" t="n">
-        <v>2.22</v>
+        <v>0.5483445570452138</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1265,11 +1265,11 @@
         <v>58.93285870552063</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>0.2750631650586915</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1309,11 +1309,11 @@
         <v>70.17024755477905</v>
       </c>
       <c r="G20" t="n">
-        <v>2.153</v>
+        <v>0.5262776851295047</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1353,7 +1353,7 @@
         <v>68.05815696716309</v>
       </c>
       <c r="G21" t="n">
-        <v>2.212</v>
+        <v>0.7444765758597904</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>80.43631911277771</v>
       </c>
       <c r="G22" t="n">
-        <v>1.89</v>
+        <v>0.1127811529064752</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1441,11 +1441,11 @@
         <v>66.87362194061279</v>
       </c>
       <c r="G23" t="n">
-        <v>1.941</v>
+        <v>0.1750558448391059</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1485,7 +1485,7 @@
         <v>83.44027996063232</v>
       </c>
       <c r="G24" t="n">
-        <v>2.253</v>
+        <v>0.73949806266394</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1529,11 +1529,11 @@
         <v>67.74606108665466</v>
       </c>
       <c r="G25" t="n">
-        <v>2.011</v>
+        <v>0.2456460648095131</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1573,7 +1573,7 @@
         <v>80.47083020210266</v>
       </c>
       <c r="G26" t="n">
-        <v>2.288</v>
+        <v>0.697150434314996</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
